--- a/ONCHO/Impact Assessments/Nigeria/2023/jagawa case/ng_oncho_prestop_3_rdtov16_202208_jigawa.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2023/jagawa case/ng_oncho_prestop_3_rdtov16_202208_jigawa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\jagawa case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F079CF0-C913-4064-B79A-A66DA36D796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B9EE73-94FB-4B99-8EED-893C72AE4F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="153">
   <si>
     <t>type</t>
   </si>
@@ -354,49 +354,133 @@
     <t>Jigawa </t>
   </si>
   <si>
-    <t>Buji </t>
-  </si>
-  <si>
-    <t>Guri </t>
-  </si>
-  <si>
-    <t>Kaugama </t>
-  </si>
-  <si>
-    <t>Mallam Maduri </t>
-  </si>
-  <si>
-    <t>Ringim </t>
-  </si>
-  <si>
-    <t>Roni </t>
-  </si>
-  <si>
-    <t>Taura </t>
-  </si>
-  <si>
-    <t>Daurawa (Chaichai) </t>
-  </si>
-  <si>
     <t>Dogon/Danji </t>
   </si>
   <si>
-    <t>Giginya Bakwai </t>
-  </si>
-  <si>
-    <t>Gilima </t>
-  </si>
-  <si>
     <t>Gogiya </t>
   </si>
   <si>
-    <t>Hadin </t>
-  </si>
-  <si>
-    <t>Toni Kutara </t>
-  </si>
-  <si>
     <t>Zangokaya </t>
+  </si>
+  <si>
+    <t>Auyo</t>
+  </si>
+  <si>
+    <t>Birnin Kudu</t>
+  </si>
+  <si>
+    <t>Birniwa</t>
+  </si>
+  <si>
+    <t>Buji</t>
+  </si>
+  <si>
+    <t>Dutse</t>
+  </si>
+  <si>
+    <t>Guri</t>
+  </si>
+  <si>
+    <t>Gwaram</t>
+  </si>
+  <si>
+    <t>Jahun</t>
+  </si>
+  <si>
+    <t>Kafin Hausa</t>
+  </si>
+  <si>
+    <t>Kaugama</t>
+  </si>
+  <si>
+    <t>Kazaure</t>
+  </si>
+  <si>
+    <t>Kirikassamma</t>
+  </si>
+  <si>
+    <t>Malam Madori</t>
+  </si>
+  <si>
+    <t>Ringim</t>
+  </si>
+  <si>
+    <t>Roni</t>
+  </si>
+  <si>
+    <t>Taura</t>
+  </si>
+  <si>
+    <t>Adaraushe Soro</t>
+  </si>
+  <si>
+    <t>Ashuran Makera</t>
+  </si>
+  <si>
+    <t>Badingu</t>
+  </si>
+  <si>
+    <t>Chediya</t>
+  </si>
+  <si>
+    <t>Daba</t>
+  </si>
+  <si>
+    <t>Daglifani</t>
+  </si>
+  <si>
+    <t>Darai</t>
+  </si>
+  <si>
+    <t>Daurawa</t>
+  </si>
+  <si>
+    <t>Doro</t>
+  </si>
+  <si>
+    <t>Gagiya</t>
+  </si>
+  <si>
+    <t>Gamsarka</t>
+  </si>
+  <si>
+    <t>Giginya-Bakwai</t>
+  </si>
+  <si>
+    <t>Gilima</t>
+  </si>
+  <si>
+    <t>Hadin</t>
+  </si>
+  <si>
+    <t>Jidawa</t>
+  </si>
+  <si>
+    <t>Matara Uku</t>
+  </si>
+  <si>
+    <t>Matarar Ganji</t>
+  </si>
+  <si>
+    <t>Shungurin</t>
+  </si>
+  <si>
+    <t>Sululu</t>
+  </si>
+  <si>
+    <t>Sumangara</t>
+  </si>
+  <si>
+    <t>Toni Kutara</t>
+  </si>
+  <si>
+    <t>Turabu</t>
+  </si>
+  <si>
+    <t>Unguwan Kaya</t>
+  </si>
+  <si>
+    <t>Warwade</t>
   </si>
 </sst>
 </file>
@@ -1248,11 +1332,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1507,10 +1591,10 @@
         <v>69</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>109</v>
@@ -1522,10 +1606,10 @@
         <v>69</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>109</v>
@@ -1537,10 +1621,10 @@
         <v>69</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>109</v>
@@ -1552,10 +1636,10 @@
         <v>69</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>109</v>
@@ -1567,10 +1651,10 @@
         <v>69</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>109</v>
@@ -1582,10 +1666,10 @@
         <v>69</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>109</v>
@@ -1597,238 +1681,896 @@
         <v>69</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E29" s="6"/>
     </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
         <v>118</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68">
+        <v>201</v>
+      </c>
+      <c r="C68">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69">
+        <v>202</v>
+      </c>
+      <c r="C69">
+        <v>202</v>
+      </c>
+      <c r="F69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>203</v>
+      </c>
+      <c r="C70">
+        <v>203</v>
+      </c>
+      <c r="F70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <v>204</v>
+      </c>
+      <c r="C71">
+        <v>204</v>
+      </c>
+      <c r="F71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72">
+        <v>205</v>
+      </c>
+      <c r="C72">
+        <v>205</v>
+      </c>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73">
+        <v>206</v>
+      </c>
+      <c r="C73">
+        <v>206</v>
+      </c>
+      <c r="F73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>207</v>
+      </c>
+      <c r="C74">
+        <v>207</v>
+      </c>
+      <c r="F74" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
         <v>102</v>
       </c>
-      <c r="B40">
-        <v>201</v>
-      </c>
-      <c r="C40">
-        <v>201</v>
-      </c>
-      <c r="F40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="B75">
+        <v>208</v>
+      </c>
+      <c r="C75">
+        <v>208</v>
+      </c>
+      <c r="F75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
         <v>102</v>
       </c>
-      <c r="B41">
-        <v>202</v>
-      </c>
-      <c r="C41">
-        <v>202</v>
-      </c>
-      <c r="F41" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="B76">
+        <v>209</v>
+      </c>
+      <c r="C76">
+        <v>209</v>
+      </c>
+      <c r="F76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>102</v>
       </c>
-      <c r="B42">
-        <v>203</v>
-      </c>
-      <c r="C42">
-        <v>203</v>
-      </c>
-      <c r="F42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B77">
+        <v>210</v>
+      </c>
+      <c r="C77">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-      <c r="B43">
-        <v>204</v>
-      </c>
-      <c r="C43">
-        <v>204</v>
-      </c>
-      <c r="F43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="B78">
+        <v>211</v>
+      </c>
+      <c r="C78">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
         <v>102</v>
       </c>
-      <c r="B44">
-        <v>205</v>
-      </c>
-      <c r="C44">
-        <v>205</v>
-      </c>
-      <c r="F44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="B79">
+        <v>212</v>
+      </c>
+      <c r="C79">
+        <v>212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
         <v>102</v>
       </c>
-      <c r="B45">
-        <v>206</v>
-      </c>
-      <c r="C45">
-        <v>206</v>
-      </c>
-      <c r="F45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="B80">
+        <v>213</v>
+      </c>
+      <c r="C80">
+        <v>213</v>
+      </c>
+      <c r="F80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
         <v>102</v>
       </c>
-      <c r="B46">
-        <v>207</v>
-      </c>
-      <c r="C46">
-        <v>207</v>
-      </c>
-      <c r="F46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="B81">
+        <v>214</v>
+      </c>
+      <c r="C81">
+        <v>214</v>
+      </c>
+      <c r="F81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
         <v>102</v>
       </c>
-      <c r="B47">
-        <v>208</v>
-      </c>
-      <c r="C47">
-        <v>208</v>
-      </c>
-      <c r="F47" t="s">
-        <v>120</v>
+      <c r="B82">
+        <v>215</v>
+      </c>
+      <c r="C82">
+        <v>215</v>
+      </c>
+      <c r="F82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83">
+        <v>216</v>
+      </c>
+      <c r="C83">
+        <v>216</v>
+      </c>
+      <c r="F83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>217</v>
+      </c>
+      <c r="C84">
+        <v>217</v>
+      </c>
+      <c r="F84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85">
+        <v>218</v>
+      </c>
+      <c r="C85">
+        <v>218</v>
+      </c>
+      <c r="F85" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86">
+        <v>219</v>
+      </c>
+      <c r="C86">
+        <v>219</v>
+      </c>
+      <c r="F86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87">
+        <v>220</v>
+      </c>
+      <c r="C87">
+        <v>220</v>
+      </c>
+      <c r="F87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88">
+        <v>221</v>
+      </c>
+      <c r="C88">
+        <v>221</v>
+      </c>
+      <c r="F88" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89">
+        <v>222</v>
+      </c>
+      <c r="C89">
+        <v>222</v>
+      </c>
+      <c r="F89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>223</v>
+      </c>
+      <c r="C90">
+        <v>223</v>
+      </c>
+      <c r="F90" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91">
+        <v>224</v>
+      </c>
+      <c r="C91">
+        <v>224</v>
+      </c>
+      <c r="F91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92">
+        <v>225</v>
+      </c>
+      <c r="C92">
+        <v>225</v>
+      </c>
+      <c r="F92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93">
+        <v>226</v>
+      </c>
+      <c r="C93">
+        <v>226</v>
+      </c>
+      <c r="F93" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94">
+        <v>227</v>
+      </c>
+      <c r="C94">
+        <v>227</v>
+      </c>
+      <c r="F94" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
